--- a/storage/app/export/product.xlsx
+++ b/storage/app/export/product.xlsx
@@ -44,10 +44,10 @@
     <t>flag</t>
   </si>
   <si>
-    <t>noting</t>
-  </si>
-  <si>
-    <t>[{"width":20,"height":2.1,"category_size_id":19,"sorting":null,"product_size_id":null,"status":null,"product_id":null,"sku":null,"price":null,"invoice_code":null,"delivery_sale":null,"delivery_rent":null,"laravel_through_key":7}]</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>[{"category_id":4,"width":2,"height":2.1,"category_size_id":31,"sorting":1,"product_size_id":38,"status":true,"product_id":1,"sku":"3106","price":21.44,"invoice_code":"6","delivery_sale":54,"delivery_rent":18,"laravel_through_key":4},{"width":9,"height":2.1,"category_size_id":33,"category_id":4,"sorting":null,"product_size_id":null,"status":null,"product_id":null,"sku":null,"price":null,"invoice_code":null,"delivery_sale":null,"delivery_rent":null,"laravel_through_key":4},{"width":10,"height":2.1,"category_size_id":34,"category_id":4,"sorting":null,"product_size_id":null,"status":null,"product_id":null,"sku":null,"price":null,"invoice_code":null,"delivery_sale":null,"delivery_rent":null,"laravel_through_key":4},{"width":4,"height":2.3,"category_size_id":4,"category_id":4,"sorting":null,"product_size_id":null,"status":null,"product_id":null,"sku":null,"price":null,"invoice_code":null,"delivery_sale":null,"delivery_rent":null,"laravel_through_key":4},{"category_id":4,"width":8,"height":2.3,"category_size_id":32,"sorting":1,"product_size_id":39,"status":true,"product_id":1,"sku":"999","price":8.32,"invoice_code":"487","delivery_sale":16,"delivery_rent":47,"laravel_through_key":4},{"width":11,"height":2.3,"category_size_id":35,"category_id":4,"sorting":null,"product_size_id":null,"status":null,"product_id":null,"sku":null,"price":null,"invoice_code":null,"delivery_sale":null,"delivery_rent":null,"laravel_through_key":4}]</t>
   </si>
 </sst>
 </file>
@@ -399,8 +399,8 @@
     <col min="6" max="6" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="271" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="1699" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
